--- a/metadata/87_GSE74620_GSE74621.xlsx
+++ b/metadata/87_GSE74620_GSE74621.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shdam/Dropbox/05_1_individual_study_excel_KVS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/sohdam_dtu_dk/Documents/Rprojects/pairedGSEA/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70A60A-CF3B-0E41-8032-7B19F858E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,7 +500,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
